--- a/xlsx/希羅多德_intext.xlsx
+++ b/xlsx/希羅多德_intext.xlsx
@@ -29,7 +29,7 @@
     <t>古希腊语</t>
   </si>
   <si>
-    <t>政策_政策_政治學_希羅多德</t>
+    <t>体育运动_体育运动_古希腊_希羅多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
